--- a/data/pca/factorExposure/factorExposure_2009-04-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-04-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01742850833429545</v>
+        <v>0.01690820667357064</v>
       </c>
       <c r="C2">
-        <v>-0.002069882716991145</v>
+        <v>0.001449528319400656</v>
       </c>
       <c r="D2">
-        <v>0.00950209852385185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.009843313775295849</v>
+      </c>
+      <c r="E2">
+        <v>0.001485352364547225</v>
+      </c>
+      <c r="F2">
+        <v>0.01822306379963407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08623275950711443</v>
+        <v>0.08970958697682803</v>
       </c>
       <c r="C4">
-        <v>-0.02013591695392971</v>
+        <v>0.01563712080484985</v>
       </c>
       <c r="D4">
-        <v>0.08189229969689649</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08495662472054946</v>
+      </c>
+      <c r="E4">
+        <v>0.03415510465399479</v>
+      </c>
+      <c r="F4">
+        <v>-0.04253975533778659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0005049641951566046</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-4.765166354001571e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-0.0001208297658349575</v>
+      </c>
+      <c r="E5">
+        <v>-2.552894660524983e-06</v>
+      </c>
+      <c r="F5">
+        <v>-0.0005930785874583345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1584538144721073</v>
+        <v>0.1655794770164001</v>
       </c>
       <c r="C6">
-        <v>-0.03554732529328467</v>
+        <v>0.03423160665275642</v>
       </c>
       <c r="D6">
-        <v>-0.02727196689034738</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01750883485222178</v>
+      </c>
+      <c r="E6">
+        <v>0.01632484396429147</v>
+      </c>
+      <c r="F6">
+        <v>-0.05704246379670007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05673966231533541</v>
+        <v>0.06085213151738082</v>
       </c>
       <c r="C7">
-        <v>-0.002013297655678717</v>
+        <v>-0.001167993971335644</v>
       </c>
       <c r="D7">
-        <v>0.04786500040357788</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05268678038871042</v>
+      </c>
+      <c r="E7">
+        <v>0.02053737789901219</v>
+      </c>
+      <c r="F7">
+        <v>-0.05044877888884879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05806259647820456</v>
+        <v>0.05484733064878661</v>
       </c>
       <c r="C8">
-        <v>0.009875521848903368</v>
+        <v>-0.01167819129938866</v>
       </c>
       <c r="D8">
-        <v>0.02893792497794876</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03128577568446305</v>
+      </c>
+      <c r="E8">
+        <v>0.01433820278769431</v>
+      </c>
+      <c r="F8">
+        <v>0.03498748452128025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06757625521122256</v>
+        <v>0.07039620647861283</v>
       </c>
       <c r="C9">
-        <v>-0.0159704190674351</v>
+        <v>0.01145268386606196</v>
       </c>
       <c r="D9">
-        <v>0.08532880076820828</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08830405346468061</v>
+      </c>
+      <c r="E9">
+        <v>0.03232594860695411</v>
+      </c>
+      <c r="F9">
+        <v>-0.06286407725438778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.09094225858342736</v>
+        <v>0.08920070570927183</v>
       </c>
       <c r="C10">
-        <v>-0.0219420869602274</v>
+        <v>0.02465406996995875</v>
       </c>
       <c r="D10">
-        <v>-0.1647060756917761</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1553618257116095</v>
+      </c>
+      <c r="E10">
+        <v>-0.03694518403966428</v>
+      </c>
+      <c r="F10">
+        <v>0.07739213313597351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.0883113229863164</v>
+        <v>0.08552764941922716</v>
       </c>
       <c r="C11">
-        <v>-0.01747129295998124</v>
+        <v>0.01239326849570831</v>
       </c>
       <c r="D11">
-        <v>0.1191559871392677</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1235834228631184</v>
+      </c>
+      <c r="E11">
+        <v>0.05997013905909271</v>
+      </c>
+      <c r="F11">
+        <v>-0.01490477557627603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09337005556949851</v>
+        <v>0.08870275137888281</v>
       </c>
       <c r="C12">
-        <v>-0.01553765819314393</v>
+        <v>0.009928511417173939</v>
       </c>
       <c r="D12">
-        <v>0.1250136250612545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1364818783575741</v>
+      </c>
+      <c r="E12">
+        <v>0.06296158044163482</v>
+      </c>
+      <c r="F12">
+        <v>-0.01859622841670396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04482632865500157</v>
+        <v>0.04514035237842719</v>
       </c>
       <c r="C13">
-        <v>-0.007483295910860145</v>
+        <v>0.003994352257302975</v>
       </c>
       <c r="D13">
-        <v>0.05014777121155345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05757142905287835</v>
+      </c>
+      <c r="E13">
+        <v>0.001253861993202014</v>
+      </c>
+      <c r="F13">
+        <v>-0.01315166595133464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01810468576103312</v>
+        <v>0.02120774885890805</v>
       </c>
       <c r="C14">
-        <v>-0.01458475262567551</v>
+        <v>0.01356169015796188</v>
       </c>
       <c r="D14">
-        <v>0.03274188625609416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03481197019839572</v>
+      </c>
+      <c r="E14">
+        <v>0.02446144878476187</v>
+      </c>
+      <c r="F14">
+        <v>-0.0189311254336421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03419216197775733</v>
+        <v>0.03484549889497301</v>
       </c>
       <c r="C15">
-        <v>-0.008433100139113985</v>
+        <v>0.006594795139437135</v>
       </c>
       <c r="D15">
-        <v>0.04966674861232732</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04970200458231239</v>
+      </c>
+      <c r="E15">
+        <v>0.01347253857595252</v>
+      </c>
+      <c r="F15">
+        <v>-0.03252275337221951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.06983545918323843</v>
+        <v>0.06874778590540663</v>
       </c>
       <c r="C16">
-        <v>-0.00649243557858746</v>
+        <v>0.001407901447458917</v>
       </c>
       <c r="D16">
-        <v>0.1202254397052379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.131534052047558</v>
+      </c>
+      <c r="E16">
+        <v>0.07367275568757679</v>
+      </c>
+      <c r="F16">
+        <v>-0.01598252394489974</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.002168968527281734</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.001093967789363465</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002016186643605515</v>
+      </c>
+      <c r="E17">
+        <v>0.004720982026530591</v>
+      </c>
+      <c r="F17">
+        <v>0.003733199994893159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02874433385169796</v>
+        <v>0.04571833416235242</v>
       </c>
       <c r="C18">
-        <v>0.0002650157824007725</v>
+        <v>-0.0002427936818639635</v>
       </c>
       <c r="D18">
-        <v>0.02083380515617924</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.02046179198674547</v>
+      </c>
+      <c r="E18">
+        <v>-0.004613331093243848</v>
+      </c>
+      <c r="F18">
+        <v>0.01375274781697778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06277673777271625</v>
+        <v>0.06183791796200092</v>
       </c>
       <c r="C20">
-        <v>-0.005410919066680448</v>
+        <v>0.002319759392846048</v>
       </c>
       <c r="D20">
-        <v>0.07884523356288679</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.08175425858343802</v>
+      </c>
+      <c r="E20">
+        <v>0.066910085351716</v>
+      </c>
+      <c r="F20">
+        <v>-0.03748099655912274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04022855953424952</v>
+        <v>0.04254154383772158</v>
       </c>
       <c r="C21">
-        <v>-0.009902488553244408</v>
+        <v>0.007325885283694795</v>
       </c>
       <c r="D21">
-        <v>0.04110975731384679</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03937562069868231</v>
+      </c>
+      <c r="E21">
+        <v>0.002387799324127703</v>
+      </c>
+      <c r="F21">
+        <v>0.01992386979931617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04427776246585509</v>
+        <v>0.04450709085554676</v>
       </c>
       <c r="C22">
-        <v>-0.003633278222785206</v>
+        <v>0.002380245444177336</v>
       </c>
       <c r="D22">
-        <v>0.002635950439072247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.01021340143709749</v>
+      </c>
+      <c r="E22">
+        <v>0.02914752518689477</v>
+      </c>
+      <c r="F22">
+        <v>0.09261062391558832</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04428635030667866</v>
+        <v>0.04451442180608648</v>
       </c>
       <c r="C23">
-        <v>-0.003635552554040915</v>
+        <v>0.002382419357887304</v>
       </c>
       <c r="D23">
-        <v>0.00262729198037245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01020681452845727</v>
+      </c>
+      <c r="E23">
+        <v>0.02915564724395118</v>
+      </c>
+      <c r="F23">
+        <v>0.09265169429971547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.0776561174345896</v>
+        <v>0.07523583632107717</v>
       </c>
       <c r="C24">
-        <v>-0.007403329992633859</v>
+        <v>0.002566992747738865</v>
       </c>
       <c r="D24">
-        <v>0.1223147065250437</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1252810215132274</v>
+      </c>
+      <c r="E24">
+        <v>0.05761147828936819</v>
+      </c>
+      <c r="F24">
+        <v>-0.0267190133989098</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08231503442964673</v>
+        <v>0.0796650847640193</v>
       </c>
       <c r="C25">
-        <v>-0.00986740953538362</v>
+        <v>0.005419464527978954</v>
       </c>
       <c r="D25">
-        <v>0.1091362401013295</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1130804325739665</v>
+      </c>
+      <c r="E25">
+        <v>0.04425127679227333</v>
+      </c>
+      <c r="F25">
+        <v>-0.02173571811627616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05615550431532884</v>
+        <v>0.06106405635163909</v>
       </c>
       <c r="C26">
-        <v>-0.01875060023415078</v>
+        <v>0.01595381387866692</v>
       </c>
       <c r="D26">
-        <v>0.04536492706267735</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.051866780408259</v>
+      </c>
+      <c r="E26">
+        <v>0.03172816376284024</v>
+      </c>
+      <c r="F26">
+        <v>0.01006764373327241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1459876253768296</v>
+        <v>0.1515737913608119</v>
       </c>
       <c r="C28">
-        <v>-0.02468666572504157</v>
+        <v>0.03006074652005596</v>
       </c>
       <c r="D28">
-        <v>-0.2506211140757296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2485847021780732</v>
+      </c>
+      <c r="E28">
+        <v>-0.06135065922568952</v>
+      </c>
+      <c r="F28">
+        <v>-0.01365108953723505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02532049882119309</v>
+        <v>0.02738605923629754</v>
       </c>
       <c r="C29">
-        <v>-0.00980920831343509</v>
+        <v>0.008993554825839922</v>
       </c>
       <c r="D29">
-        <v>0.03166471817034074</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03253551796098907</v>
+      </c>
+      <c r="E29">
+        <v>0.01903025077203624</v>
+      </c>
+      <c r="F29">
+        <v>0.02015202268230626</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05311187000434828</v>
+        <v>0.05184336088448768</v>
       </c>
       <c r="C30">
-        <v>-0.006086258931357903</v>
+        <v>0.002149250112954672</v>
       </c>
       <c r="D30">
-        <v>0.0821461962783042</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08705462466720817</v>
+      </c>
+      <c r="E30">
+        <v>0.02166928381871493</v>
+      </c>
+      <c r="F30">
+        <v>-0.1056402546930423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.051048820937151</v>
+        <v>0.05160182854386793</v>
       </c>
       <c r="C31">
-        <v>-0.01882000699325815</v>
+        <v>0.01688823820639311</v>
       </c>
       <c r="D31">
-        <v>0.02561763139159861</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02780813279242181</v>
+      </c>
+      <c r="E31">
+        <v>0.03056181868599802</v>
+      </c>
+      <c r="F31">
+        <v>0.009150479394226387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04513517713198501</v>
+        <v>0.0501657021435095</v>
       </c>
       <c r="C32">
-        <v>-0.002014048984418649</v>
+        <v>-0.00096827470885833</v>
       </c>
       <c r="D32">
-        <v>0.03322757104054975</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03622749919103974</v>
+      </c>
+      <c r="E32">
+        <v>0.03273390660751781</v>
+      </c>
+      <c r="F32">
+        <v>0.001354086728937945</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08797955676974481</v>
+        <v>0.08874858548276356</v>
       </c>
       <c r="C33">
-        <v>-0.01386303486530915</v>
+        <v>0.008474417894088405</v>
       </c>
       <c r="D33">
-        <v>0.09295272944018779</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1055336849990444</v>
+      </c>
+      <c r="E33">
+        <v>0.05833572166284925</v>
+      </c>
+      <c r="F33">
+        <v>-0.02910519648300271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06536666318675832</v>
+        <v>0.06508161897552883</v>
       </c>
       <c r="C34">
-        <v>-0.01557511751667013</v>
+        <v>0.01091935224412429</v>
       </c>
       <c r="D34">
-        <v>0.1024522776430075</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1127729664421171</v>
+      </c>
+      <c r="E34">
+        <v>0.04588388820466038</v>
+      </c>
+      <c r="F34">
+        <v>-0.03801922931738341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02699273781211545</v>
+        <v>0.02830627149929921</v>
       </c>
       <c r="C35">
-        <v>-0.005077187072053676</v>
+        <v>0.004451924781998042</v>
       </c>
       <c r="D35">
-        <v>0.01018884932021025</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01279227463230512</v>
+      </c>
+      <c r="E35">
+        <v>0.01875047458768399</v>
+      </c>
+      <c r="F35">
+        <v>0.003882510784622887</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02319863637930244</v>
+        <v>0.02785706278969429</v>
       </c>
       <c r="C36">
-        <v>-0.00834221724727589</v>
+        <v>0.007442670927149595</v>
       </c>
       <c r="D36">
-        <v>0.03933514207758594</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04172032512902103</v>
+      </c>
+      <c r="E36">
+        <v>0.02060918753700564</v>
+      </c>
+      <c r="F36">
+        <v>-0.01860086896377818</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.002748546943701483</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.000916685657419562</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.00318902320439044</v>
+      </c>
+      <c r="E37">
+        <v>0.001164175441526932</v>
+      </c>
+      <c r="F37">
+        <v>0.0003352030736824441</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1037046162231522</v>
+        <v>0.0946748704035955</v>
       </c>
       <c r="C39">
-        <v>-0.02243811148302506</v>
+        <v>0.01630353435230703</v>
       </c>
       <c r="D39">
-        <v>0.1558244323557205</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1541323237107802</v>
+      </c>
+      <c r="E39">
+        <v>0.07435680062743247</v>
+      </c>
+      <c r="F39">
+        <v>-0.004512621409972477</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.04323462891496599</v>
+        <v>0.04827933986455421</v>
       </c>
       <c r="C40">
-        <v>-0.01183234601739981</v>
+        <v>0.01021532287610574</v>
       </c>
       <c r="D40">
-        <v>0.03130611347689212</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03797160734015157</v>
+      </c>
+      <c r="E40">
+        <v>0.004389807121716565</v>
+      </c>
+      <c r="F40">
+        <v>0.0240259878046133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02582980389329461</v>
+        <v>0.02816178021953939</v>
       </c>
       <c r="C41">
-        <v>-0.008308457575006725</v>
+        <v>0.007852589314656573</v>
       </c>
       <c r="D41">
-        <v>0.01152165890868223</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0129220435999463</v>
+      </c>
+      <c r="E41">
+        <v>0.01265518784992362</v>
+      </c>
+      <c r="F41">
+        <v>0.01177112584473001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04070289587338438</v>
+        <v>0.03950620396605919</v>
       </c>
       <c r="C43">
-        <v>-0.00917245088489608</v>
+        <v>0.008213210609475597</v>
       </c>
       <c r="D43">
-        <v>0.02280395571684764</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02328916511931989</v>
+      </c>
+      <c r="E43">
+        <v>0.02864162616501166</v>
+      </c>
+      <c r="F43">
+        <v>0.02449730090783581</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06479742851817645</v>
+        <v>0.07185155222056709</v>
       </c>
       <c r="C44">
-        <v>-0.02316519664104641</v>
+        <v>0.01926329810281812</v>
       </c>
       <c r="D44">
-        <v>0.08311130613239125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0905547496933064</v>
+      </c>
+      <c r="E44">
+        <v>0.07812217136918992</v>
+      </c>
+      <c r="F44">
+        <v>-0.2040018719827946</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0001162075717470636</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>6.492279227447127e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>9.351660103515039e-05</v>
+      </c>
+      <c r="E45">
+        <v>-0.0002287199403695072</v>
+      </c>
+      <c r="F45">
+        <v>-0.0001337050829604139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02267702292066584</v>
+        <v>0.02522706969181813</v>
       </c>
       <c r="C46">
-        <v>-0.005165570611130666</v>
+        <v>0.004234605802145272</v>
       </c>
       <c r="D46">
-        <v>0.0158197408082193</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0185283467783343</v>
+      </c>
+      <c r="E46">
+        <v>0.03615165970750563</v>
+      </c>
+      <c r="F46">
+        <v>0.02272757695434253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05450659793805666</v>
+        <v>0.05323078910714295</v>
       </c>
       <c r="C47">
-        <v>-0.007367798295974298</v>
+        <v>0.005719298033747556</v>
       </c>
       <c r="D47">
-        <v>0.01056793360137528</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.0142755192355035</v>
+      </c>
+      <c r="E47">
+        <v>0.02556559049488308</v>
+      </c>
+      <c r="F47">
+        <v>0.04575928617971533</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04787134476349766</v>
+        <v>0.05150599722027956</v>
       </c>
       <c r="C48">
-        <v>-0.005631868681846812</v>
+        <v>0.003174304864422474</v>
       </c>
       <c r="D48">
-        <v>0.05291791904991754</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05479647751520126</v>
+      </c>
+      <c r="E48">
+        <v>0.0004048028085870765</v>
+      </c>
+      <c r="F48">
+        <v>-0.0160604820209358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1958662212859437</v>
+        <v>0.1983942436482923</v>
       </c>
       <c r="C49">
-        <v>-0.02824880000064523</v>
+        <v>0.02471725153525041</v>
       </c>
       <c r="D49">
-        <v>-0.01208174038787971</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.006190785242867891</v>
+      </c>
+      <c r="E49">
+        <v>0.0216201640154139</v>
+      </c>
+      <c r="F49">
+        <v>-0.05935082689723766</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04949241038028657</v>
+        <v>0.05213546734019072</v>
       </c>
       <c r="C50">
-        <v>-0.01454260593133589</v>
+        <v>0.01308686643417138</v>
       </c>
       <c r="D50">
-        <v>0.02531850978912693</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02749367600361618</v>
+      </c>
+      <c r="E50">
+        <v>0.03169656107260846</v>
+      </c>
+      <c r="F50">
+        <v>-0.008065253508453767</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1519788017435898</v>
+        <v>0.145524707561998</v>
       </c>
       <c r="C52">
-        <v>-0.02476174872763725</v>
+        <v>0.02120068269950504</v>
       </c>
       <c r="D52">
-        <v>0.04321101572047147</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04560499288016579</v>
+      </c>
+      <c r="E52">
+        <v>0.03140809034143302</v>
+      </c>
+      <c r="F52">
+        <v>-0.04249434645579334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1748114611485052</v>
+        <v>0.1677244914762365</v>
       </c>
       <c r="C53">
-        <v>-0.02735428101927646</v>
+        <v>0.02523509875319666</v>
       </c>
       <c r="D53">
-        <v>0.004619003053096617</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.007521490689580008</v>
+      </c>
+      <c r="E53">
+        <v>0.03809483107523141</v>
+      </c>
+      <c r="F53">
+        <v>-0.08985333726096446</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01414816638635386</v>
+        <v>0.01803797128463987</v>
       </c>
       <c r="C54">
-        <v>-0.01192214398376438</v>
+        <v>0.01124977545812033</v>
       </c>
       <c r="D54">
-        <v>0.02897775723678661</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02765179805328763</v>
+      </c>
+      <c r="E54">
+        <v>0.02073645411743925</v>
+      </c>
+      <c r="F54">
+        <v>0.002817644699758848</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1187751673741054</v>
+        <v>0.1165739216089639</v>
       </c>
       <c r="C55">
-        <v>-0.02389230018719283</v>
+        <v>0.02189737670586315</v>
       </c>
       <c r="D55">
-        <v>0.00349045974482792</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01162892985404594</v>
+      </c>
+      <c r="E55">
+        <v>0.03902047992768112</v>
+      </c>
+      <c r="F55">
+        <v>-0.03261677864885987</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1808817165517464</v>
+        <v>0.1748413573824524</v>
       </c>
       <c r="C56">
-        <v>-0.02574959003135181</v>
+        <v>0.02375406323918011</v>
       </c>
       <c r="D56">
-        <v>-0.005048757384027512</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0002261890087744667</v>
+      </c>
+      <c r="E56">
+        <v>0.03869225749806151</v>
+      </c>
+      <c r="F56">
+        <v>-0.04839648253639919</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04537907318798383</v>
+        <v>0.04451143859321587</v>
       </c>
       <c r="C58">
-        <v>-0.004234773008966665</v>
+        <v>0.0002625440201184858</v>
       </c>
       <c r="D58">
-        <v>0.0735055197936275</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.08086904271184356</v>
+      </c>
+      <c r="E58">
+        <v>0.03994010868027747</v>
+      </c>
+      <c r="F58">
+        <v>0.04437959944974824</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1681621948399541</v>
+        <v>0.1731959196850648</v>
       </c>
       <c r="C59">
-        <v>-0.02539385561339914</v>
+        <v>0.02954236455221437</v>
       </c>
       <c r="D59">
-        <v>-0.2153011381163448</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2133316041351497</v>
+      </c>
+      <c r="E59">
+        <v>-0.05600868434513197</v>
+      </c>
+      <c r="F59">
+        <v>0.0668768129894996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2285635886310453</v>
+        <v>0.2224017729928562</v>
       </c>
       <c r="C60">
-        <v>-0.008419895556598637</v>
+        <v>0.003803341778164343</v>
       </c>
       <c r="D60">
-        <v>0.02091684465698479</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.02347210019023253</v>
+      </c>
+      <c r="E60">
+        <v>-0.01239172920464809</v>
+      </c>
+      <c r="F60">
+        <v>0.002397288101456212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.0755625928378105</v>
+        <v>0.07164159719105939</v>
       </c>
       <c r="C61">
-        <v>-0.016117060231803</v>
+        <v>0.01096740231710217</v>
       </c>
       <c r="D61">
-        <v>0.1169315074297202</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.119539085099818</v>
+      </c>
+      <c r="E61">
+        <v>0.04929085329976027</v>
+      </c>
+      <c r="F61">
+        <v>0.004609780407695861</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1718216768264806</v>
+        <v>0.1673976647581703</v>
       </c>
       <c r="C62">
-        <v>-0.02848476982729019</v>
+        <v>0.0257863417285059</v>
       </c>
       <c r="D62">
-        <v>0.001361351938879424</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.008554373509433449</v>
+      </c>
+      <c r="E62">
+        <v>0.04116357082640904</v>
+      </c>
+      <c r="F62">
+        <v>-0.02961864031636812</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04295130732314288</v>
+        <v>0.0475005403606354</v>
       </c>
       <c r="C63">
-        <v>-0.006080102276368506</v>
+        <v>0.003401625791791375</v>
       </c>
       <c r="D63">
-        <v>0.05875341071405397</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06744526765024557</v>
+      </c>
+      <c r="E63">
+        <v>0.02835851894899788</v>
+      </c>
+      <c r="F63">
+        <v>0.002664235642667162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1143439282509322</v>
+        <v>0.111393594480093</v>
       </c>
       <c r="C64">
-        <v>-0.01906854496812319</v>
+        <v>0.01552151035233764</v>
       </c>
       <c r="D64">
-        <v>0.04161559221350342</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04681330020689031</v>
+      </c>
+      <c r="E64">
+        <v>0.03312809469250741</v>
+      </c>
+      <c r="F64">
+        <v>-0.02336462371134384</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1499738113760581</v>
+        <v>0.1560206995044026</v>
       </c>
       <c r="C65">
-        <v>-0.04161871875997954</v>
+        <v>0.04063841938236729</v>
       </c>
       <c r="D65">
-        <v>-0.04954634694426048</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03765795959160029</v>
+      </c>
+      <c r="E65">
+        <v>0.01001841305540957</v>
+      </c>
+      <c r="F65">
+        <v>-0.05912809708601183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1258626551439641</v>
+        <v>0.1144510809048146</v>
       </c>
       <c r="C66">
-        <v>-0.02135311708471389</v>
+        <v>0.01459840396603633</v>
       </c>
       <c r="D66">
-        <v>0.1415083848837307</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.144842529126027</v>
+      </c>
+      <c r="E66">
+        <v>0.07719060766294865</v>
+      </c>
+      <c r="F66">
+        <v>-0.00769416646257026</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06042801276779097</v>
+        <v>0.05345414782273327</v>
       </c>
       <c r="C67">
-        <v>-0.00649006077477225</v>
+        <v>0.003894920630379519</v>
       </c>
       <c r="D67">
-        <v>0.05120805885988643</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05480782782418004</v>
+      </c>
+      <c r="E67">
+        <v>0.02307641762395208</v>
+      </c>
+      <c r="F67">
+        <v>0.079155851541081</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1170810863321079</v>
+        <v>0.1244972345662064</v>
       </c>
       <c r="C68">
-        <v>-0.03347262752772502</v>
+        <v>0.03977445121034169</v>
       </c>
       <c r="D68">
-        <v>-0.2538370782150928</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2527484998968911</v>
+      </c>
+      <c r="E68">
+        <v>-0.0871990811197762</v>
+      </c>
+      <c r="F68">
+        <v>-0.02139927067100731</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04006365296270541</v>
+        <v>0.03934926023150077</v>
       </c>
       <c r="C69">
-        <v>-0.003403873697145176</v>
+        <v>0.002408636936388017</v>
       </c>
       <c r="D69">
-        <v>0.009747594405065391</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01067280435034172</v>
+      </c>
+      <c r="E69">
+        <v>0.02969436330400326</v>
+      </c>
+      <c r="F69">
+        <v>0.02056391879828344</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06866030621660107</v>
+        <v>0.06962001795844158</v>
       </c>
       <c r="C70">
-        <v>0.02295488011340089</v>
+        <v>-0.0247379112582993</v>
       </c>
       <c r="D70">
-        <v>0.03244597901769454</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.03267124954801565</v>
+      </c>
+      <c r="E70">
+        <v>-0.03727225650019056</v>
+      </c>
+      <c r="F70">
+        <v>0.3527984974683275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1364336167633073</v>
+        <v>0.1446931663643214</v>
       </c>
       <c r="C71">
-        <v>-0.03885064274382208</v>
+        <v>0.04499589215528063</v>
       </c>
       <c r="D71">
-        <v>-0.2691673722369554</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2629486857766119</v>
+      </c>
+      <c r="E71">
+        <v>-0.09763612994473302</v>
+      </c>
+      <c r="F71">
+        <v>-0.02529484564303619</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1379816362666408</v>
+        <v>0.1437754339041706</v>
       </c>
       <c r="C72">
-        <v>-0.03222151422300535</v>
+        <v>0.03150498262213321</v>
       </c>
       <c r="D72">
-        <v>0.00189135067661069</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0001954939296702739</v>
+      </c>
+      <c r="E72">
+        <v>0.04361085008920858</v>
+      </c>
+      <c r="F72">
+        <v>-0.03814688346052589</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1970379513457858</v>
+        <v>0.2009465647252636</v>
       </c>
       <c r="C73">
-        <v>-0.02174621685232681</v>
+        <v>0.01666957793280468</v>
       </c>
       <c r="D73">
-        <v>0.008132062124635075</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01532047387058992</v>
+      </c>
+      <c r="E73">
+        <v>0.06419312401670996</v>
+      </c>
+      <c r="F73">
+        <v>-0.02302384305106389</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08832821089229095</v>
+        <v>0.08831776133821607</v>
       </c>
       <c r="C74">
-        <v>-0.01618564561335787</v>
+        <v>0.01445762344367083</v>
       </c>
       <c r="D74">
-        <v>0.01062441642538383</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01639414043309632</v>
+      </c>
+      <c r="E74">
+        <v>0.04874566438549784</v>
+      </c>
+      <c r="F74">
+        <v>-0.0503699318016022</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1305404672364865</v>
+        <v>0.1227280058254271</v>
       </c>
       <c r="C75">
-        <v>-0.03464874783111137</v>
+        <v>0.03152293099987338</v>
       </c>
       <c r="D75">
-        <v>0.02556913756684691</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03184413305382249</v>
+      </c>
+      <c r="E75">
+        <v>0.06115271204724777</v>
+      </c>
+      <c r="F75">
+        <v>-0.01564942103199776</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07953273565054228</v>
+        <v>0.09275539662262271</v>
       </c>
       <c r="C77">
-        <v>-0.01493636621434511</v>
+        <v>0.01052233913420623</v>
       </c>
       <c r="D77">
-        <v>0.123589340529534</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1238240031101473</v>
+      </c>
+      <c r="E77">
+        <v>0.05167911059581157</v>
+      </c>
+      <c r="F77">
+        <v>-0.05280748279078726</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09795940204439382</v>
+        <v>0.09902244740362093</v>
       </c>
       <c r="C78">
-        <v>-0.04471501360060433</v>
+        <v>0.04094973250476093</v>
       </c>
       <c r="D78">
-        <v>0.1128729314197039</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1121759511100328</v>
+      </c>
+      <c r="E78">
+        <v>0.07858144557448642</v>
+      </c>
+      <c r="F78">
+        <v>-0.04996083367573772</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1684451710796503</v>
+        <v>0.1639874104592169</v>
       </c>
       <c r="C79">
-        <v>-0.03203724953316547</v>
+        <v>0.02896991073882351</v>
       </c>
       <c r="D79">
-        <v>0.01118998730848387</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01746926744117925</v>
+      </c>
+      <c r="E79">
+        <v>0.05047440080609113</v>
+      </c>
+      <c r="F79">
+        <v>-0.01009005757044936</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08076451243570076</v>
+        <v>0.07941621366456432</v>
       </c>
       <c r="C80">
-        <v>-0.004175449490075238</v>
+        <v>0.001607954070493996</v>
       </c>
       <c r="D80">
-        <v>0.05429277815727727</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05343265348989084</v>
+      </c>
+      <c r="E80">
+        <v>0.0381050459082825</v>
+      </c>
+      <c r="F80">
+        <v>0.05385188187642671</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1178036936214543</v>
+        <v>0.1120279307391695</v>
       </c>
       <c r="C81">
-        <v>-0.03645734720773709</v>
+        <v>0.03485406377106993</v>
       </c>
       <c r="D81">
-        <v>0.004659749109856178</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01043952629341703</v>
+      </c>
+      <c r="E81">
+        <v>0.05453448948100007</v>
+      </c>
+      <c r="F81">
+        <v>-0.004161460764152226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1637359138815532</v>
+        <v>0.1614581310101862</v>
       </c>
       <c r="C82">
-        <v>-0.03171193119423385</v>
+        <v>0.02955981087230508</v>
       </c>
       <c r="D82">
-        <v>0.004038155452590638</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.004342178932170905</v>
+      </c>
+      <c r="E82">
+        <v>0.03694689624302159</v>
+      </c>
+      <c r="F82">
+        <v>-0.09129696908516208</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05661539389482656</v>
+        <v>0.05215348941669658</v>
       </c>
       <c r="C83">
-        <v>-0.00560839174220775</v>
+        <v>0.003442060280520975</v>
       </c>
       <c r="D83">
-        <v>0.04152098814708712</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04192088452469601</v>
+      </c>
+      <c r="E83">
+        <v>-0.006782179751872643</v>
+      </c>
+      <c r="F83">
+        <v>0.03632854265489614</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05787044574181046</v>
+        <v>0.05391083528103733</v>
       </c>
       <c r="C84">
-        <v>-0.01383542507791569</v>
+        <v>0.01089398049927613</v>
       </c>
       <c r="D84">
-        <v>0.07518056219857791</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07584251389050072</v>
+      </c>
+      <c r="E84">
+        <v>0.01892760867893835</v>
+      </c>
+      <c r="F84">
+        <v>-0.002742274506291218</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1402870797607516</v>
+        <v>0.1347492418067987</v>
       </c>
       <c r="C85">
-        <v>-0.03526679524508266</v>
+        <v>0.03296592240926238</v>
       </c>
       <c r="D85">
-        <v>0.007359103413983134</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01225488798297264</v>
+      </c>
+      <c r="E85">
+        <v>0.04591941579004121</v>
+      </c>
+      <c r="F85">
+        <v>-0.05816620038179818</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08308236292424856</v>
+        <v>0.07985583852233946</v>
       </c>
       <c r="C86">
-        <v>0.00405058867446795</v>
+        <v>-0.007738303248535989</v>
       </c>
       <c r="D86">
-        <v>0.03490047460168066</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06156415073634415</v>
+      </c>
+      <c r="E86">
+        <v>0.1065310522167304</v>
+      </c>
+      <c r="F86">
+        <v>0.8093310191288182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.08906957288833646</v>
+        <v>0.08899035150929456</v>
       </c>
       <c r="C87">
-        <v>-0.02648153721493968</v>
+        <v>0.02157704156310661</v>
       </c>
       <c r="D87">
-        <v>0.08590168982372361</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08945377441306317</v>
+      </c>
+      <c r="E87">
+        <v>-0.05819819207623714</v>
+      </c>
+      <c r="F87">
+        <v>-0.08093281307578415</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06195496119085509</v>
+        <v>0.06089457881323896</v>
       </c>
       <c r="C88">
-        <v>-0.006875077232929756</v>
+        <v>0.004255763552762758</v>
       </c>
       <c r="D88">
-        <v>0.05320614470300523</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.05309655733056221</v>
+      </c>
+      <c r="E88">
+        <v>0.03248246514614662</v>
+      </c>
+      <c r="F88">
+        <v>-0.003446442618294198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1269879176514399</v>
+        <v>0.132718644546246</v>
       </c>
       <c r="C89">
-        <v>-0.0141985265571065</v>
+        <v>0.01999370744284491</v>
       </c>
       <c r="D89">
-        <v>-0.230547014757349</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2353350337713336</v>
+      </c>
+      <c r="E89">
+        <v>-0.08929849167161849</v>
+      </c>
+      <c r="F89">
+        <v>-0.009654232653543791</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1477780741169942</v>
+        <v>0.1599659901099774</v>
       </c>
       <c r="C90">
-        <v>-0.03534235349103741</v>
+        <v>0.04220201145602626</v>
       </c>
       <c r="D90">
-        <v>-0.2552223973814911</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2595112450060649</v>
+      </c>
+      <c r="E90">
+        <v>-0.1170811772840906</v>
+      </c>
+      <c r="F90">
+        <v>-0.01502311509196972</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1252621739277786</v>
+        <v>0.1210696986250349</v>
       </c>
       <c r="C91">
-        <v>-0.02595515911783389</v>
+        <v>0.02475264166310909</v>
       </c>
       <c r="D91">
-        <v>-0.02033755763537037</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01463267514336754</v>
+      </c>
+      <c r="E91">
+        <v>0.05614984315636611</v>
+      </c>
+      <c r="F91">
+        <v>0.02206065568318323</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1489434540278629</v>
+        <v>0.1532993357423724</v>
       </c>
       <c r="C92">
-        <v>-0.02643412069525382</v>
+        <v>0.03281959727686518</v>
       </c>
       <c r="D92">
-        <v>-0.2821403507485816</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2854180210732993</v>
+      </c>
+      <c r="E92">
+        <v>-0.106562372324555</v>
+      </c>
+      <c r="F92">
+        <v>0.002029595271017332</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.152727869352691</v>
+        <v>0.1626613746037239</v>
       </c>
       <c r="C93">
-        <v>-0.03150199359745468</v>
+        <v>0.03697113785991022</v>
       </c>
       <c r="D93">
-        <v>-0.2507832448182279</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2532885006642877</v>
+      </c>
+      <c r="E93">
+        <v>-0.07181206068144907</v>
+      </c>
+      <c r="F93">
+        <v>-0.01766720329970859</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1296777307053535</v>
+        <v>0.1220637470379551</v>
       </c>
       <c r="C94">
-        <v>-0.03064023863608537</v>
+        <v>0.0271047558661978</v>
       </c>
       <c r="D94">
-        <v>0.03876404819061158</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04345163065205149</v>
+      </c>
+      <c r="E94">
+        <v>0.06267034155051156</v>
+      </c>
+      <c r="F94">
+        <v>-0.01885425991175206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1265804593792016</v>
+        <v>0.1293490728492305</v>
       </c>
       <c r="C95">
-        <v>-0.01276163443932821</v>
+        <v>0.007331672016287816</v>
       </c>
       <c r="D95">
-        <v>0.09519668843735764</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1058128932295123</v>
+      </c>
+      <c r="E95">
+        <v>0.06787489680253016</v>
+      </c>
+      <c r="F95">
+        <v>0.02108969287955993</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1558387005270849</v>
+        <v>0.1420341849129736</v>
       </c>
       <c r="C96">
-        <v>0.9818590053090689</v>
+        <v>-0.9828242287077461</v>
       </c>
       <c r="D96">
-        <v>-0.03391219637855886</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05803424288480321</v>
+      </c>
+      <c r="E96">
+        <v>0.05191186456555744</v>
+      </c>
+      <c r="F96">
+        <v>-0.04518136663237508</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1894925084622057</v>
+        <v>0.1933347273220955</v>
       </c>
       <c r="C97">
-        <v>-0.002386249779345598</v>
+        <v>0.0003371134624843457</v>
       </c>
       <c r="D97">
-        <v>-0.01987346427535149</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02525840493970394</v>
+      </c>
+      <c r="E97">
+        <v>0.01772221631327858</v>
+      </c>
+      <c r="F97">
+        <v>0.1919546948917917</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1943209059476673</v>
+        <v>0.2005133997817403</v>
       </c>
       <c r="C98">
-        <v>-0.01626906137565174</v>
+        <v>0.01136408853434556</v>
       </c>
       <c r="D98">
-        <v>0.006917976731159525</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.009683959301990024</v>
+      </c>
+      <c r="E98">
+        <v>-0.08976693263348753</v>
+      </c>
+      <c r="F98">
+        <v>0.08640056169171968</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05782903341618487</v>
+        <v>0.05746198265496227</v>
       </c>
       <c r="C99">
-        <v>0.000224944646934998</v>
+        <v>-0.002360078548155316</v>
       </c>
       <c r="D99">
-        <v>0.04152752801444125</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04633698491879586</v>
+      </c>
+      <c r="E99">
+        <v>0.02827074111012776</v>
+      </c>
+      <c r="F99">
+        <v>0.006043995592777115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1449848486899195</v>
+        <v>0.1338382926913093</v>
       </c>
       <c r="C100">
-        <v>0.03656537621105142</v>
+        <v>-0.04654152883831264</v>
       </c>
       <c r="D100">
-        <v>0.4166483541298758</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3761035296079736</v>
+      </c>
+      <c r="E100">
+        <v>-0.8875713348819211</v>
+      </c>
+      <c r="F100">
+        <v>0.02471124656190354</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02532573880976848</v>
+        <v>0.02744167014294411</v>
       </c>
       <c r="C101">
-        <v>-0.009820079928794204</v>
+        <v>0.009025770544677798</v>
       </c>
       <c r="D101">
-        <v>0.03117121124779038</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03207008362933641</v>
+      </c>
+      <c r="E101">
+        <v>0.01845183756927614</v>
+      </c>
+      <c r="F101">
+        <v>0.02253134793033248</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
